--- a/backend/node/data/auth.xlsx
+++ b/backend/node/data/auth.xlsx
@@ -1,107 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agus Wira\Desktop\DECEMBER - JANUARY\backend\node\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3C74E4-7931-4C75-9DD4-D40EE3F16572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Passwords" sheetId="2" r:id="rId2"/>
     <sheet name="Roles" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>admin1</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>Alice Smith</t>
-  </si>
-  <si>
-    <t>Bob Johnson</t>
-  </si>
-  <si>
-    <t>Charlie Lee</t>
-  </si>
-  <si>
-    <t>alice@email.com</t>
-  </si>
-  <si>
-    <t>bob@email.com</t>
-  </si>
-  <si>
-    <t>charlie@email.com</t>
-  </si>
-  <si>
-    <t>Password Hash</t>
-  </si>
-  <si>
-    <t>$2b$12$Cybyq7fFUhVxFPR9L4cL/e4V2f8sJsim3RHY9.YqCO7JzqOSbxQpG</t>
-  </si>
-  <si>
-    <t>$2b$12$XJXgFdaRRtE/KHrqCkwymeGcOgoa0picrAPmeRasSuBeUSaZtsf6G</t>
-  </si>
-  <si>
-    <t>$2b$12$pWIZ02CK6vVVlaWiSLGXcu41OSB0VljGCIju07/YxvfU0A5ErdG/2</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -116,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -124,55 +62,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,7 +118,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -282,7 +190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -314,20 +222,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -449,234 +353,280 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Username</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Name</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Password</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Role</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="str">
+        <v>user1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Alice Smith</v>
+      </c>
+      <c r="D2" t="str">
+        <v>alice@email.com</v>
+      </c>
+      <c r="E2" t="str">
+        <v>$2b$12$Cybyq7fFUhVxFPR9L4cL/e4V2f8sJsim3RHY9.YqCO7JzqOSbxQpG</v>
+      </c>
+      <c r="F2" t="str">
+        <v>user</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="str">
+        <v>admin1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Bob Johnson</v>
+      </c>
+      <c r="D3" t="str">
+        <v>bob@email.com</v>
+      </c>
+      <c r="E3" t="str">
+        <v>$2b$12$XJXgFdaRRtE/KHrqCkwymeGcOgoa0picrAPmeRasSuBeUSaZtsf6G</v>
+      </c>
+      <c r="F3" t="str">
+        <v>admin</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B4" t="str">
+        <v>user2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Charlie Lee</v>
+      </c>
+      <c r="D4" t="str">
+        <v>charlie@email.com</v>
+      </c>
+      <c r="E4" t="str">
+        <v>$2b$12$pWIZ02CK6vVVlaWiSLGXcu41OSB0VljGCIju07/YxvfU0A5ErdG/2</v>
+      </c>
+      <c r="F4" t="str">
+        <v>user</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="str">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3"/>
+      <c r="E5" t="str">
+        <v>$2b$10$kg9ovKI9gYXWdZVeNZ1ytunnSD3HOKHDGA8u8QwydX9IYtGffQLWi</v>
+      </c>
+      <c r="F5" t="str">
+        <v>user</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="str">
+        <v>aguswiraw60@gmail.com</v>
+      </c>
+      <c r="E6" t="str">
+        <v>$2b$10$6VwY66CMmQCgcCZPUNNS9.V6JiShHyHXaYHoV6katd7F36nzizfTK</v>
+      </c>
+      <c r="F6" t="str">
+        <v>user</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C2:C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Username</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Password Hash</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
+        <v>user1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>$2b$12$Cybyq7fFUhVxFPR9L4cL/e4V2f8sJsim3RHY9.YqCO7JzqOSbxQpG</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="str">
+        <v>admin1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>$2b$12$XJXgFdaRRtE/KHrqCkwymeGcOgoa0picrAPmeRasSuBeUSaZtsf6G</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
+      <c r="B4" t="str">
+        <v>user2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>$2b$12$pWIZ02CK6vVVlaWiSLGXcu41OSB0VljGCIju07/YxvfU0A5ErdG/2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C1:C4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>ID</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Username</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Role</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
+        <v>user1</v>
+      </c>
+      <c r="C2" t="str">
+        <v>user</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="str">
+        <v>admin1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>admin</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
+      <c r="B4" t="str">
+        <v>user2</v>
+      </c>
+      <c r="C4" t="str">
+        <v>user</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
+  </ignoredErrors>
 </worksheet>
 </file>